--- a/measure-list.xlsx
+++ b/measure-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6c5a3bf1cc44f38/Documents/GitHub/gender-briefs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{97F8F633-496A-4830-96FD-3F573E5DC412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE29F99F-0BCE-4903-848E-AC4FD792C5B9}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="8_{97F8F633-496A-4830-96FD-3F573E5DC412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E8BE4A-5658-4C2D-87C9-5857BB2FA173}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-2070" windowWidth="19420" windowHeight="10300" xr2:uid="{E0B95AEB-06B5-4B08-B83F-00F91E67F6CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E0B95AEB-06B5-4B08-B83F-00F91E67F6CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="308">
   <si>
     <t>direction</t>
   </si>
@@ -271,177 +271,15 @@
     <t>number</t>
   </si>
   <si>
-    <t>average years of school for women</t>
-  </si>
-  <si>
-    <t>average years of school for men</t>
-  </si>
-  <si>
     <t>percent</t>
   </si>
   <si>
-    <t>women are able to read</t>
-  </si>
-  <si>
-    <t>men are able to read</t>
-  </si>
-  <si>
-    <t>women complete primary school</t>
-  </si>
-  <si>
-    <t>men complete primary school</t>
-  </si>
-  <si>
-    <t>women complete lower secondary school</t>
-  </si>
-  <si>
-    <t>men complete lower secondary school</t>
-  </si>
-  <si>
-    <t>women enroll in tertiary school</t>
-  </si>
-  <si>
-    <t>men enroll in tertiary school</t>
-  </si>
-  <si>
-    <t>STEM graduates are women</t>
-  </si>
-  <si>
     <t>down</t>
   </si>
   <si>
-    <t>fertility rate for women</t>
-  </si>
-  <si>
-    <t>adolescent fertility rate for women</t>
-  </si>
-  <si>
-    <t>sex ratio at birth</t>
-  </si>
-  <si>
-    <t>have an unmet need for contraception</t>
-  </si>
-  <si>
-    <t>women receive at least four prenatal visits</t>
-  </si>
-  <si>
-    <t>women are diagnosed with HIV</t>
-  </si>
-  <si>
-    <t>men are diagnosed with HIV</t>
-  </si>
-  <si>
-    <t>average harmonized test score for women</t>
-  </si>
-  <si>
-    <t>average harmonized test score for men</t>
-  </si>
-  <si>
-    <t>women report using contraceptive methods</t>
-  </si>
-  <si>
-    <t>women use tobacco</t>
-  </si>
-  <si>
-    <t>men use tobacco</t>
-  </si>
-  <si>
-    <t>women participate in the labor force</t>
-  </si>
-  <si>
-    <t>men participate in the labor force</t>
-  </si>
-  <si>
-    <t>percent of workers are women</t>
-  </si>
-  <si>
-    <t>percent of workers are men</t>
-  </si>
-  <si>
-    <t>percent of senior and middle management are women</t>
-  </si>
-  <si>
-    <t>women are employed in agriculture</t>
-  </si>
-  <si>
-    <t>men are employed in agriculture</t>
-  </si>
-  <si>
-    <t>women receive a public sector pension</t>
-  </si>
-  <si>
-    <t>men receive a public sector pension</t>
-  </si>
-  <si>
-    <t>hours per day women spend in unpaid domestic and care work</t>
-  </si>
-  <si>
-    <t>hours per day men spend in unpaid domestic and care work</t>
-  </si>
-  <si>
-    <t>age dependency ratio</t>
-  </si>
-  <si>
-    <t>women own land alone and jointly</t>
-  </si>
-  <si>
-    <t>women own land alone</t>
-  </si>
-  <si>
-    <t>men own land alone</t>
-  </si>
-  <si>
-    <t>women hold an account at a financial institution</t>
-  </si>
-  <si>
-    <t>men hold an account at a financial institution</t>
-  </si>
-  <si>
-    <t>women have vulnerable employment</t>
-  </si>
-  <si>
-    <t>men have vulnerable employment</t>
-  </si>
-  <si>
-    <t>firms have a female top manager</t>
-  </si>
-  <si>
-    <t>seats in national parliament are held by women</t>
-  </si>
-  <si>
-    <t>women were first married by age 18</t>
-  </si>
-  <si>
-    <t>ministerial positions are held by women</t>
-  </si>
-  <si>
-    <t>women are subjected to physical and/or sexual violence in the last year</t>
-  </si>
-  <si>
-    <t>women experience female genital mutilization</t>
-  </si>
-  <si>
-    <t>women believe a husband is justified in beating his wife</t>
-  </si>
-  <si>
-    <t>women used the internet to buy something on line in the last year</t>
-  </si>
-  <si>
-    <t>men used the internet to buy something on line in the last year</t>
-  </si>
-  <si>
-    <t>women participate in the decision of what food to cook daily</t>
-  </si>
-  <si>
-    <t>women particiapte in major household and personal decisions</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
-    <t>https://genderdata.worldbank.org/indicators/hd-hci-lays/</t>
-  </si>
-  <si>
     <t>https://genderdata.worldbank.org/indicators/sp-pop-brth-mf</t>
   </si>
   <si>
@@ -472,9 +310,6 @@
     <t>https://genderdata.worldbank.org/indicators/sg-own-ld</t>
   </si>
   <si>
-    <t>https://genderdata.worldbank.org/indicators/fin15-t-a</t>
-  </si>
-  <si>
     <t>https://genderdata.worldbank.org/indicators/sg-gen-mnst-zs</t>
   </si>
   <si>
@@ -487,108 +322,21 @@
     <t>https://genderdata.worldbank.org/indicators/sg-dmk</t>
   </si>
   <si>
-    <t>women experience mortality from CVD, cancer, diabetes, or CRD</t>
-  </si>
-  <si>
-    <t>men experience mortality from CVD, cancer, diabetes, or CRD</t>
-  </si>
-  <si>
-    <t>maternal mortality per 100,000 births</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sh-sta-mmrt/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sh-hiv-1524-zs/</t>
-  </si>
-  <si>
-    <t>young women are not in education, employment, or training</t>
-  </si>
-  <si>
-    <t>young men are not in education, employment, or training</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sl-uem-neet-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sg-tim-uwrk/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/se-adt/</t>
-  </si>
-  <si>
     <t>https://genderdata.worldbank.org/indicators/se-prm-cmpt-zs</t>
   </si>
   <si>
     <t>https://genderdata.worldbank.org/indicators/se-sec-cmpt-lo-zs</t>
   </si>
   <si>
-    <t>https://genderdata.worldbank.org/indicators/se-ter-enrr/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/se-ter-grad-fe-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sp-dyn-tfrt-in/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sp-ado-tfrt/</t>
-  </si>
-  <si>
     <t>https://genderdata.worldbank.org/indicators/hd-hci-hlos</t>
   </si>
   <si>
-    <t>https://genderdata.worldbank.org/indicators/sp-dyn-zs/</t>
-  </si>
-  <si>
     <t>https://genderdata.worldbank.org/indicators/sh-prv-smok</t>
   </si>
   <si>
-    <t>https://genderdata.worldbank.org/indicators/sl-tlf-acti-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sg-own-ld/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/fin1-t-a/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/ic-wef-llco-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sl-emp-vuln-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/ic-frm-femm-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sg-gen-parl-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sp-2024-fe-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sg-vaw-1549-zs/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/sg-dmk/</t>
-  </si>
-  <si>
-    <t>https://genderdata.worldbank.org/indicators/fin14abca-t-d/</t>
-  </si>
-  <si>
     <t>https://genderdata.worldbank.org/indicators/sg-law-indx</t>
   </si>
   <si>
-    <t>women have borrowed to start, operate,  or expand a farm or business</t>
-  </si>
-  <si>
-    <t>men have borrowed to start, operate,  or expand a farm or business</t>
-  </si>
-  <si>
-    <t>women participate in decisions relating to healthcare, purchases, visiting family, and cooking</t>
-  </si>
-  <si>
     <t>HD.HCI.OVRL.FE</t>
   </si>
   <si>
@@ -700,9 +448,6 @@
     <t>SP.UWT.TFRT</t>
   </si>
   <si>
-    <t>HF.STA.ANV4.ZS</t>
-  </si>
-  <si>
     <t>SH.STA.MMRT</t>
   </si>
   <si>
@@ -781,9 +526,6 @@
     <t>SP.POP.DPND</t>
   </si>
   <si>
-    <t>SG.OWN.LDAL.FE.ZS</t>
-  </si>
-  <si>
     <t>SG.OWN.LDAL.MA.ZS</t>
   </si>
   <si>
@@ -874,9 +616,6 @@
     <t>IC.FRM.FEMO.ZS</t>
   </si>
   <si>
-    <t>firms have female participation in ownership</t>
-  </si>
-  <si>
     <t>https://genderdata.worldbank.org/indicators/hd-hci-ovrl</t>
   </si>
   <si>
@@ -923,6 +662,303 @@
   </si>
   <si>
     <t>fin14b.a.1</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/hd-hci-lays</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/se-adt</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/se-ter-enrr</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/se-ter-grad-fe-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sp-dyn-tfrt-in</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sp-ado-tfrt</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sh-hiv-1524-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sp-dyn-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sl-tlf-acti-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sl-uem-neet-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sg-tim-uwrk</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/fin1-t-a</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sl-emp-vuln-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/ic-frm-femm-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sg-gen-parl-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sg-vaw-1549-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/fin14abca-t-d</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/fin21-t-a</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sp-mtr-1519-zs</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/ic-frm-femo-zs</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>EAP</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>MENA</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>FCV</t>
+  </si>
+  <si>
+    <t>SP.DYN.CONM.ZS</t>
+  </si>
+  <si>
+    <t>m86</t>
+  </si>
+  <si>
+    <t>m87</t>
+  </si>
+  <si>
+    <t>Learning-adjusted years of school, female</t>
+  </si>
+  <si>
+    <t>Learning-adjusted years of school, male</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, female (%)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, male (%)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (%)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (%) If both female and male rates above 90% --&gt; School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (%) If both female and male rates above 90% --&gt; School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Female share of graduates from STEM programmes (%)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women, ages 15-19)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Unmet need for contraception (% of married women ages 15-49) If not available --&gt; Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care of at least four visits (% of pregnant women). If not available --&gt; Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled est. per 100,000 births)</t>
+  </si>
+  <si>
+    <t>Mortality from CVD, cancer, diabetes or CRD between exact ages 30 and 70, female (%)</t>
+  </si>
+  <si>
+    <t>Mortality from CVD, cancer, diabetes or CRD between exact ages 30 and 70, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Harmonized test scores, female (%)</t>
+  </si>
+  <si>
+    <t>Harmonized test scores, male (%)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of current tobacco use, female (% of adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of current tobacco use, male (% of adults)</t>
+  </si>
+  <si>
+    <t>Labor force participation, female (% of female population 15+) ◊</t>
+  </si>
+  <si>
+    <t>Labor force participation, male (% of male population 15+) ◊</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of employment) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of employment) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment in senior and middle management, female (%)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment) </t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of female employment)</t>
+  </si>
+  <si>
+    <t>Received a public sector pension in the past year, female (% age 15+)</t>
+  </si>
+  <si>
+    <t>Received a public sector pension in the past year, male (% age 15+)</t>
+  </si>
+  <si>
+    <t>Share of youth not in education, employment or training, females (% of female youth population)</t>
+  </si>
+  <si>
+    <t>Share of youth not in education, employment or training, males (% of male youth population)</t>
+  </si>
+  <si>
+    <t>Proportion of time spent on unpaid domestic and care work (% of 24 hour day), female</t>
+  </si>
+  <si>
+    <t>Proportion of time spent on unpaid domestic and care work (% of 24 hour day), male</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women who own land alone and jointly (% of women age 15-49) (%) </t>
+  </si>
+  <si>
+    <t>Men who own land alone and jointly (% of men) (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migrants, female (% of international migrant stock) </t>
+  </si>
+  <si>
+    <t>Account at a ﬁnancial institution, female (% age 15+)</t>
+  </si>
+  <si>
+    <t>Account at a ﬁnancial institution, male (% age 15+)</t>
+  </si>
+  <si>
+    <t>Borrowed to start, operate, or expand a farm or business, female (% age 15+)</t>
+  </si>
+  <si>
+    <t>Borrowed to start, operate, or expand a farm or business, male (% age 15+)</t>
+  </si>
+  <si>
+    <t>Firms with female participation in ownership (% of firms)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment) ◊</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment) ◊</t>
+  </si>
+  <si>
+    <t>Firms with female top manager (% of ﬁrms)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Women who were ﬁrst married by age 18 (% of women ages 20-24)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Proportion of women who have ever experienced any form of sexual violence (% of women age 15-49) If not available --&gt; Proportion of women subjected to physical and/or sexual violence in the last 12 months (% of women 15-49)</t>
+  </si>
+  <si>
+    <t>Female genital mutilation prevalence (%)</t>
+  </si>
+  <si>
+    <t>Women who believe a husband is justified in beating his wife, for any five reasons (%)</t>
+  </si>
+  <si>
+    <t>Women participating in decisions related to visiting family, relatives and friends (%)</t>
+  </si>
+  <si>
+    <t>Used the internet to pay bills or to buy something online in the past year, female (% age 15+)</t>
+  </si>
+  <si>
+    <t>Used the internet to pay bills or to buy something online in the past year, male (% age 15+)</t>
+  </si>
+  <si>
+    <t>Women participating in decision of what food to cook daily (% of women age 15-49) (%)</t>
+  </si>
+  <si>
+    <t>Women participating in the three decisions (own health care, major household purchases, and visiting family) (% of women age 15-49) (%)</t>
+  </si>
+  <si>
+    <t>HF.STA.BRTC.ZS</t>
+  </si>
+  <si>
+    <t>m88</t>
+  </si>
+  <si>
+    <t>https://genderdata.worldbank.org/indicators/sh-sta-brtc-zs</t>
+  </si>
+  <si>
+    <t>m89</t>
+  </si>
+  <si>
+    <t>m90</t>
+  </si>
+  <si>
+    <t>SG.POP.MIGR.FE.ZS</t>
+  </si>
+  <si>
+    <t>SH.STA.ANV4.ZS</t>
   </si>
 </sst>
 </file>
@@ -1292,20 +1328,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E51C5D-76F3-430B-AEA4-5F9C807F7690}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" customWidth="1"/>
+    <col min="5" max="5" width="75.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1322,15 +1358,36 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>76</v>
@@ -1339,18 +1396,39 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -1359,398 +1437,773 @@
         <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
@@ -1759,18 +2212,36 @@
         <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
         <v>76</v>
@@ -1779,798 +2250,1509 @@
         <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
         <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
         <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
         <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
         <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="F33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>75</v>
+      </c>
+      <c r="L37" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>75</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" t="s">
         <v>90</v>
       </c>
-      <c r="D41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
         <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
         <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
         <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
         <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="F46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
         <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s">
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
         <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>279</v>
-      </c>
-      <c r="F49" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>286</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" t="s">
+        <v>75</v>
+      </c>
+      <c r="L50" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" t="s">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" t="s">
+        <v>75</v>
+      </c>
+      <c r="L51" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
         <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
         <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>75</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s">
+        <v>75</v>
+      </c>
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s">
+        <v>75</v>
+      </c>
+      <c r="K58" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s">
+        <v>75</v>
+      </c>
+      <c r="K59" t="s">
+        <v>75</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="F63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
@@ -2578,19 +3760,38 @@
       <c r="D64" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E64" s="1"/>
       <c r="F64" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
@@ -2598,19 +3799,38 @@
       <c r="D65" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E65" s="1"/>
       <c r="F65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
         <v>76</v>
@@ -2622,15 +3842,36 @@
         <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
         <v>76</v>
@@ -2642,15 +3883,36 @@
         <v>75</v>
       </c>
       <c r="F67" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
         <v>76</v>
@@ -2662,15 +3924,36 @@
         <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2682,15 +3965,36 @@
         <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
@@ -2702,15 +4006,36 @@
         <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
         <v>76</v>
@@ -2722,15 +4047,36 @@
         <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
         <v>76</v>
@@ -2742,183 +4088,506 @@
         <v>75</v>
       </c>
       <c r="F72" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s">
+        <v>196</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>203</v>
       </c>
-      <c r="B73" t="s">
-        <v>184</v>
-      </c>
-      <c r="F73" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>204</v>
-      </c>
-      <c r="B74" t="s">
-        <v>276</v>
-      </c>
-      <c r="F74" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B86" t="s">
         <v>205</v>
       </c>
-      <c r="B75" t="s">
-        <v>188</v>
-      </c>
-      <c r="F75" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" t="s">
         <v>206</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>238</v>
+      </c>
+      <c r="B88" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>302</v>
+      </c>
+      <c r="B89" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s">
+        <v>303</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90" t="s">
         <v>189</v>
       </c>
-      <c r="F76" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B77" t="s">
-        <v>191</v>
-      </c>
-      <c r="F77" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" t="s">
-        <v>192</v>
-      </c>
-      <c r="F78" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79" t="s">
-        <v>195</v>
-      </c>
-      <c r="F79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B80" t="s">
-        <v>196</v>
-      </c>
-      <c r="F80" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B81" t="s">
-        <v>198</v>
-      </c>
-      <c r="F81" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" t="s">
-        <v>200</v>
-      </c>
-      <c r="F82" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>213</v>
-      </c>
-      <c r="B83" t="s">
-        <v>201</v>
-      </c>
-      <c r="F83" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>277</v>
-      </c>
-      <c r="B84" t="s">
-        <v>202</v>
-      </c>
-      <c r="F84" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>289</v>
-      </c>
-      <c r="B85" t="s">
-        <v>291</v>
-      </c>
-      <c r="F85" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>290</v>
-      </c>
-      <c r="B86" t="s">
-        <v>292</v>
-      </c>
-      <c r="F86" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>212</v>
-      </c>
-      <c r="B87" t="s">
-        <v>295</v>
-      </c>
-      <c r="F87" t="s">
-        <v>286</v>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>305</v>
+      </c>
+      <c r="B91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" t="s">
+        <v>248</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F18" r:id="rId1" xr:uid="{A4E5FAB7-5416-4F24-9379-7E2F1D2CAD84}"/>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{A4E5FAB7-5416-4F24-9379-7E2F1D2CAD84}"/>
     <hyperlink ref="F21" r:id="rId2" xr:uid="{95E5FD25-2C19-4AD0-8C14-885C66759DA3}"/>
     <hyperlink ref="F22" r:id="rId3" xr:uid="{C74B4F63-454D-435E-90EC-25694B5FDA56}"/>
-    <hyperlink ref="F37" r:id="rId4" xr:uid="{582C896B-3AD3-4C92-B9FE-BD49760989C3}"/>
-    <hyperlink ref="F38" r:id="rId5" xr:uid="{B71D34CE-0597-4331-A8DF-072A9BB7183E}"/>
-    <hyperlink ref="F39" r:id="rId6" xr:uid="{382104CB-78E1-4A00-8A66-CF5D4D3584C1}"/>
+    <hyperlink ref="F34" r:id="rId4" xr:uid="{582C896B-3AD3-4C92-B9FE-BD49760989C3}"/>
+    <hyperlink ref="F35" r:id="rId5" xr:uid="{B71D34CE-0597-4331-A8DF-072A9BB7183E}"/>
+    <hyperlink ref="F36" r:id="rId6" xr:uid="{382104CB-78E1-4A00-8A66-CF5D4D3584C1}"/>
+    <hyperlink ref="F2" r:id="rId7" xr:uid="{EFFE2D09-3516-4876-BA3A-25B5A89E5B6E}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{369BFB55-B53A-451F-BF69-1BD9BD76C8CF}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{11C512D9-0D4B-47CA-B4FC-86B2FC09D02A}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{AACCF626-8F72-41CD-BD43-9D1F9C371BB8}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{89E2FC97-BC0F-4529-86B9-0F6653782321}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{DDA4557E-A65E-4237-9F6A-E27E18C314E8}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{88AF442E-6D68-4473-9299-724ECC9BD8BE}"/>
+    <hyperlink ref="F13" r:id="rId14" xr:uid="{472E1620-4B9E-4359-9F7B-B707E3BA98EE}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{715DE314-9FC7-4E68-A2C7-C9087878C77B}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{53B995FF-41B3-4140-9958-E1E77336FAA6}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{FCF63B97-D594-4E9A-847E-1072DC721B04}"/>
+    <hyperlink ref="F25" r:id="rId18" xr:uid="{5E60FC34-7457-4951-8361-5F3EA75137B4}"/>
+    <hyperlink ref="F26" r:id="rId19" xr:uid="{828F38FB-4F75-498C-AFEC-5C1877C4D571}"/>
+    <hyperlink ref="F29" r:id="rId20" xr:uid="{1A57DD54-30A3-4181-A62C-A4FD5A987DC9}"/>
+    <hyperlink ref="F28" r:id="rId21" xr:uid="{6F5C0E47-8B56-4745-9932-739737AA2BC7}"/>
+    <hyperlink ref="F37" r:id="rId22" xr:uid="{76363D17-EAC0-4F9B-B849-4CE80E39DB6B}"/>
+    <hyperlink ref="F42" r:id="rId23" xr:uid="{DF69D129-5F60-4EDB-9B9B-CA629213AF71}"/>
+    <hyperlink ref="F43" r:id="rId24" xr:uid="{E342F8AB-03A6-482E-82FA-ACFC76F1CA22}"/>
+    <hyperlink ref="F44" r:id="rId25" xr:uid="{A564AD1F-ED5D-4EB1-A621-1F3FC3C61D66}"/>
+    <hyperlink ref="F45" r:id="rId26" xr:uid="{3ABC102B-BE13-444D-B439-D2A2BC69BC83}"/>
+    <hyperlink ref="F50" r:id="rId27" xr:uid="{DD734135-76D8-458E-8F7C-096A10318A3A}"/>
+    <hyperlink ref="F51" r:id="rId28" xr:uid="{590E90C5-C340-4584-AD86-08CFA249056A}"/>
+    <hyperlink ref="F52" r:id="rId29" xr:uid="{746F437D-824D-45B2-BEE2-F1218B97F624}"/>
+    <hyperlink ref="F53" r:id="rId30" xr:uid="{E0C2383C-4DA8-448D-ACCE-E2E706BC3DC4}"/>
+    <hyperlink ref="F54" r:id="rId31" xr:uid="{7BB6D71F-2CBF-46F1-9587-9C7B2E515B33}"/>
+    <hyperlink ref="F56" r:id="rId32" xr:uid="{4531B5B9-5EA7-4DEA-9995-99403F60ED56}"/>
+    <hyperlink ref="F59" r:id="rId33" xr:uid="{1B8D0587-E68F-42A4-8D7E-291DD91489CE}"/>
+    <hyperlink ref="F60" r:id="rId34" xr:uid="{17FE75F4-251B-49FA-AAED-7A42E9C8D6B4}"/>
+    <hyperlink ref="F61" r:id="rId35" xr:uid="{F8C5BEF7-FEF4-44D2-8C4C-4DB596B9D6AC}"/>
+    <hyperlink ref="F62" r:id="rId36" xr:uid="{3DF10D53-601C-4901-B295-FD412F8F5C26}"/>
+    <hyperlink ref="F90" r:id="rId37" xr:uid="{BD44BFF8-D5D7-414B-8564-60FAA60EF990}"/>
+    <hyperlink ref="F91" r:id="rId38" xr:uid="{FA6BEC1E-5174-48FC-89CD-661A0EDDDBF8}"/>
+    <hyperlink ref="F88" r:id="rId39" xr:uid="{F70887AB-1542-4684-A958-0300D0298514}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
